--- a/HW/BOM.xlsx
+++ b/HW/BOM.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1594395900" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1594395900" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1594395900" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1594395900"/>
+      <pm:revision xmlns:pm="smNativeData" day="1594567063" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1594567063" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1594567063" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1594567063"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Comment</t>
   </si>
@@ -47,7 +47,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1594395900">
+            <pm:charSpec xmlns:pm="smNativeData" id="1594567063">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -67,7 +67,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1594395900">
+            <pm:charSpec xmlns:pm="smNativeData" id="1594567063">
               <pm:latin face="Arial" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -87,7 +87,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1594395900">
+            <pm:charSpec xmlns:pm="smNativeData" id="1594567063">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -123,7 +123,7 @@
     <t>1KΩ</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R2,R4,R5</t>
   </si>
   <si>
     <t>C4410</t>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>C14877</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED_1206</t>
+  </si>
+  <si>
+    <t>C15595</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>C72691</t>
   </si>
 </sst>
 </file>
@@ -204,7 +219,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -219,7 +234,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -235,7 +250,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -250,7 +265,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -266,7 +281,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="300" lang="default" weight="bold"/>
@@ -282,7 +297,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="260" lang="default" weight="bold"/>
@@ -298,7 +313,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -313,7 +328,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -329,7 +344,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -344,7 +359,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -359,7 +374,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -374,7 +389,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -390,7 +405,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -405,7 +420,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -421,7 +436,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -437,7 +452,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" i="1"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
@@ -453,7 +468,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -468,7 +483,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -484,7 +499,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="360" lang="default" weight="bold"/>
@@ -500,7 +515,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -516,7 +531,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -531,7 +546,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594395900" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594567063" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -553,7 +568,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -564,7 +579,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -575,7 +590,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -586,7 +601,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -597,7 +612,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -608,7 +623,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -619,7 +634,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -633,7 +648,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -647,7 +662,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -658,7 +673,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -669,7 +684,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -680,7 +695,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -691,7 +706,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -702,7 +717,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -719,7 +734,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -730,7 +745,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -741,7 +756,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -752,7 +767,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -763,7 +778,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -774,7 +789,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -785,7 +800,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -796,7 +811,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -807,7 +822,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -818,7 +833,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -829,7 +844,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -840,7 +855,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -851,7 +866,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -862,7 +877,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -873,7 +888,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -884,7 +899,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -895,7 +910,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -906,7 +921,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -917,7 +932,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -931,7 +946,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594395900" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594567063" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -953,26 +968,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
         </ext>
       </extLst>
     </border>
@@ -991,7 +1006,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1015,45 +1030,45 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
         </ext>
       </extLst>
     </border>
@@ -1072,7 +1087,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1096,7 +1111,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
         </ext>
       </extLst>
     </border>
@@ -1115,7 +1130,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
         </ext>
@@ -1136,7 +1151,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
         </ext>
       </extLst>
     </border>
@@ -1155,7 +1170,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="ACCCEA"/>
           </pm:border>
         </ext>
@@ -1176,7 +1191,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
         </ext>
       </extLst>
     </border>
@@ -1195,7 +1210,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1219,7 +1234,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1243,7 +1258,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1267,26 +1282,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
         </ext>
       </extLst>
     </border>
@@ -1305,7 +1320,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -1326,7 +1341,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
@@ -1348,330 +1363,330 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
         </ext>
       </extLst>
     </border>
@@ -1690,7 +1705,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1714,7 +1729,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900">
+          <pm:border xmlns:pm="smNativeData" id="1594567063">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1738,7 +1753,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594395900"/>
+          <pm:border xmlns:pm="smNativeData" id="1594567063"/>
         </ext>
       </extLst>
     </border>
@@ -2107,10 +2122,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1594395900" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1594567063" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1594395900" count="41">
+      <pm:colors xmlns:pm="smNativeData" id="1594567063" count="41">
         <pm:color name="Color 24" rgb="44546A"/>
         <pm:color name="Color 25" rgb="9C0006"/>
         <pm:color name="Color 26" rgb="9C6500"/>
@@ -2417,7 +2432,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.60"/>
@@ -2556,16 +2571,32 @@
       <c r="E9"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="A10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12"/>
@@ -2685,7 +2716,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594395900" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594567063" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2694,14 +2725,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594395900" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594395900" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594567063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594567063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594395900" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594567063" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
